--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -306,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,9 +561,10 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -617,7 +618,9 @@
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="2">
@@ -644,12 +647,14 @@
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J14" si="0">ROUNDUP(COUNTIF(D3:I3,"P")*20/7,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -671,7 +676,9 @@
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="2">
@@ -698,7 +705,9 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="2">
@@ -725,7 +734,9 @@
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="2">
@@ -752,12 +763,14 @@
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -779,12 +792,14 @@
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -806,12 +821,14 @@
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -833,12 +850,14 @@
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -860,12 +879,14 @@
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -887,12 +908,14 @@
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -914,12 +937,14 @@
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -941,12 +966,14 @@
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,11 +563,11 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -593,13 +593,28 @@
         <v>42451</v>
       </c>
       <c r="I1" s="6">
-        <v>42453</v>
-      </c>
-      <c r="J1" s="6" t="s">
+        <v>42458</v>
+      </c>
+      <c r="J1" s="6">
+        <v>42460</v>
+      </c>
+      <c r="K1" s="6">
+        <v>42465</v>
+      </c>
+      <c r="L1" s="6">
+        <v>42467</v>
+      </c>
+      <c r="M1" s="6">
+        <v>42472</v>
+      </c>
+      <c r="N1" s="6">
+        <v>42474</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -621,14 +636,21 @@
       <c r="G2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="2">
-        <f>ROUNDUP(COUNTIF(D2:I2,"P")*20/7,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="2">
+        <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -650,14 +672,21 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J14" si="0">ROUNDUP(COUNTIF(D3:I3,"P")*20/7,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -679,14 +708,21 @@
       <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="2">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -708,14 +744,21 @@
       <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="2">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -737,14 +780,21 @@
       <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="2">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -766,14 +816,21 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="2">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -795,14 +852,21 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="2">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -824,72 +888,93 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="2">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -911,14 +996,21 @@
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="2">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -940,14 +1032,21 @@
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="2">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -969,9 +1068,16 @@
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="2">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,9 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -675,7 +677,9 @@
       <c r="H3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -683,7 +687,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -711,7 +715,9 @@
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -747,7 +753,9 @@
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -755,7 +763,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -783,7 +791,9 @@
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -791,7 +801,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -819,7 +829,9 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -827,7 +839,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -855,7 +867,9 @@
       <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -863,7 +877,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -891,7 +905,9 @@
       <c r="H9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -927,7 +943,9 @@
       <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -935,7 +953,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -963,7 +981,9 @@
       <c r="H11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -971,7 +991,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -999,7 +1019,9 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1035,7 +1057,9 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1043,7 +1067,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1071,7 +1095,9 @@
       <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +563,8 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -642,14 +642,16 @@
       <c r="I2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="2">
         <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -680,7 +682,9 @@
       <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -718,14 +722,16 @@
       <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -756,14 +762,16 @@
       <c r="I5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -794,14 +802,16 @@
       <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -832,14 +842,16 @@
       <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -870,14 +882,16 @@
       <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -908,7 +922,9 @@
       <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -946,14 +962,16 @@
       <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -984,7 +1002,9 @@
       <c r="I11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1022,14 +1042,16 @@
       <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1060,14 +1082,16 @@
       <c r="I13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1098,7 +1122,9 @@
       <c r="I14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +563,8 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -645,13 +645,15 @@
       <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="2">
         <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -685,13 +687,15 @@
       <c r="J3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -725,13 +729,15 @@
       <c r="J4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -765,13 +771,15 @@
       <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -805,7 +813,9 @@
       <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -845,13 +855,15 @@
       <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -885,7 +897,9 @@
       <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -925,13 +939,15 @@
       <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -965,7 +981,9 @@
       <c r="J10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1005,13 +1023,15 @@
       <c r="J11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1045,13 +1065,15 @@
       <c r="J12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1085,13 +1107,15 @@
       <c r="J13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1125,7 +1149,9 @@
       <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +563,8 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -648,12 +648,14 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="2">
         <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -690,12 +692,14 @@
       <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -732,12 +736,14 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -774,12 +780,14 @@
       <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -816,7 +824,9 @@
       <c r="K6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="2">
@@ -858,12 +868,14 @@
       <c r="K7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,12 +912,14 @@
       <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -942,7 +956,9 @@
       <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="2">
@@ -984,7 +1000,9 @@
       <c r="K10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="2">
@@ -1026,7 +1044,9 @@
       <c r="K11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="2">
@@ -1068,12 +1088,14 @@
       <c r="K12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1110,12 +1132,14 @@
       <c r="K13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1152,12 +1176,14 @@
       <c r="K14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,9 @@
       <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N2" s="9"/>
       <c r="O2" s="2">
         <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
@@ -695,11 +697,13 @@
       <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -739,11 +743,13 @@
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -783,7 +789,9 @@
       <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
@@ -827,7 +835,9 @@
       <c r="L6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
@@ -871,11 +881,13 @@
       <c r="L7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -915,11 +927,13 @@
       <c r="L8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -959,11 +973,13 @@
       <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1003,11 +1019,13 @@
       <c r="L10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1047,11 +1065,13 @@
       <c r="L11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1091,11 +1111,13 @@
       <c r="L12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1135,11 +1157,13 @@
       <c r="L13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1179,11 +1203,13 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
+    <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
+    <sheet name="ASISTENCIA" sheetId="1" r:id="rId2"/>
+    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId3"/>
+    <sheet name="PARTICIPACION" sheetId="4" r:id="rId4"/>
+    <sheet name="INVESTIGACION" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -17,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -113,13 +117,124 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>ASISTENCIA</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>EXP2</t>
+  </si>
+  <si>
+    <t>CTRL01</t>
+  </si>
+  <si>
+    <t>CTRL02</t>
+  </si>
+  <si>
+    <t>CTRL03</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>PARTICI</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>mayra.acunaz@gmail.com</t>
+  </si>
+  <si>
+    <t>994039720</t>
+  </si>
+  <si>
+    <t>geraldine.altuna@gmail.com</t>
+  </si>
+  <si>
+    <t>987973959</t>
+  </si>
+  <si>
+    <t>jchumpitazh84@gmail.com</t>
+  </si>
+  <si>
+    <t>991980432</t>
+  </si>
+  <si>
+    <t>juanpablod.fabian@gmail.com</t>
+  </si>
+  <si>
+    <t>980704388</t>
+  </si>
+  <si>
+    <t>julio.donayre@hotmail.com</t>
+  </si>
+  <si>
+    <t>991445098</t>
+  </si>
+  <si>
+    <t>mickyfarfan@hotmail.com</t>
+  </si>
+  <si>
+    <t>993113088</t>
+  </si>
+  <si>
+    <t>edwin_54_13@hotmail.com</t>
+  </si>
+  <si>
+    <t>997785330</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>john.moreno@gmail.com</t>
+  </si>
+  <si>
+    <t>991898381</t>
+  </si>
+  <si>
+    <t>eliasobeso@gmail.com</t>
+  </si>
+  <si>
+    <t>940081377</t>
+  </si>
+  <si>
+    <t>juniorramospio@gmail.com</t>
+  </si>
+  <si>
+    <t>949357310</t>
+  </si>
+  <si>
+    <t>TRAB</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>INVESTIGA</t>
+  </si>
+  <si>
+    <t>EXAMEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +260,22 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,11 +318,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +349,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -550,10 +715,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <f>ASISTENCIA!O2</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <f>EXPERIENCIA!D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>EXPERIENCIA!E2</f>
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <f>PARTICIPACION!G2</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="11">
+        <f>INVESTIGACION!I2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="2">
+        <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <f>ASISTENCIA!O3</f>
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <f>EXPERIENCIA!D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>EXPERIENCIA!E3</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <f>PARTICIPACION!G3</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="11">
+        <f>INVESTIGACION!I3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J14" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <f>ASISTENCIA!O4</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <f>EXPERIENCIA!D4</f>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <f>EXPERIENCIA!E4</f>
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <f>PARTICIPACION!G4</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="11">
+        <f>INVESTIGACION!I4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <f>ASISTENCIA!O5</f>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <f>EXPERIENCIA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>EXPERIENCIA!E5</f>
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <f>PARTICIPACION!G5</f>
+        <v>9</v>
+      </c>
+      <c r="H5" s="11">
+        <f>INVESTIGACION!I5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <f>ASISTENCIA!O6</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <f>EXPERIENCIA!D6</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <f>EXPERIENCIA!E6</f>
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <f>PARTICIPACION!G6</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <f>INVESTIGACION!I6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f>ASISTENCIA!O7</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <f>EXPERIENCIA!D7</f>
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <f>EXPERIENCIA!E7</f>
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <f>PARTICIPACION!G7</f>
+        <v>18</v>
+      </c>
+      <c r="H7" s="11">
+        <f>INVESTIGACION!I7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <f>ASISTENCIA!O8</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <f>EXPERIENCIA!D8</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <f>EXPERIENCIA!E8</f>
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <f>PARTICIPACION!G8</f>
+        <v>14</v>
+      </c>
+      <c r="H8" s="11">
+        <f>INVESTIGACION!I8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <f>ASISTENCIA!O9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>EXPERIENCIA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f>EXPERIENCIA!E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f>PARTICIPACION!G9</f>
+        <v>13</v>
+      </c>
+      <c r="H9" s="11">
+        <f>INVESTIGACION!I9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <f>ASISTENCIA!O10</f>
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <f>EXPERIENCIA!D10</f>
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <f>EXPERIENCIA!E10</f>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <f>PARTICIPACION!G10</f>
+        <v>16</v>
+      </c>
+      <c r="H10" s="11">
+        <f>INVESTIGACION!I10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>ASISTENCIA!O11</f>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <f>EXPERIENCIA!D11</f>
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <f>EXPERIENCIA!E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>PARTICIPACION!G11</f>
+        <v>16</v>
+      </c>
+      <c r="H11" s="11">
+        <f>INVESTIGACION!I11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ASISTENCIA!O12</f>
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <f>EXPERIENCIA!D12</f>
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <f>EXPERIENCIA!E12</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f>PARTICIPACION!G12</f>
+        <v>13</v>
+      </c>
+      <c r="H12" s="11">
+        <f>INVESTIGACION!I12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ASISTENCIA!O13</f>
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <f>EXPERIENCIA!D13</f>
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <f>EXPERIENCIA!E13</f>
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <f>PARTICIPACION!G13</f>
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <f>INVESTIGACION!I13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ASISTENCIA!O14</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <f>EXPERIENCIA!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f>EXPERIENCIA!E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f>PARTICIPACION!G14</f>
+        <v>12</v>
+      </c>
+      <c r="H14" s="11">
+        <f>INVESTIGACION!I14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +1252,8 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -654,10 +1343,12 @@
       <c r="M2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O2" s="2">
         <f>ROUNDUP(COUNTIF(D2:N2,"P")*20/11,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -700,10 +1391,12 @@
       <c r="M3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O14" si="0">ROUNDUP(COUNTIF(D3:N3,"P")*20/11,0)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -746,10 +1439,12 @@
       <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -792,10 +1487,12 @@
       <c r="M5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -838,10 +1535,12 @@
       <c r="M6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -884,10 +1583,12 @@
       <c r="M7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -930,7 +1631,9 @@
       <c r="M8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -976,10 +1679,12 @@
       <c r="M9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1022,10 +1727,12 @@
       <c r="M10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1068,10 +1775,12 @@
       <c r="M11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1114,10 +1823,12 @@
       <c r="M12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1160,10 +1871,12 @@
       <c r="M13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1206,10 +1919,12 @@
       <c r="M14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1219,4 +1934,1009 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ROUNDUP((SUM(D2:F2)-MIN(D2:F2))/2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G14" si="0">ROUNDUP((SUM(D3:F3)-MIN(D3:F3))/2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notas/Asistencia.xlsx
+++ b/Notas/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +379,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,8 +730,8 @@
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -790,14 +793,16 @@
         <f>PARTICIPACION!G2</f>
         <v>10</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="2">
         <f>INVESTIGACION!I2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
         <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>4.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -826,14 +831,16 @@
         <f>PARTICIPACION!G3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="2">
         <f>INVESTIGACION!I3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
         <f t="shared" ref="J3:J14" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>5.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -862,14 +869,16 @@
         <f>PARTICIPACION!G4</f>
         <v>15</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="2">
         <f>INVESTIGACION!I4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>6.35</v>
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="0"/>
+        <v>13.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -898,14 +907,16 @@
         <f>PARTICIPACION!G5</f>
         <v>9</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="2">
         <f>INVESTIGACION!I5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3000000000000007</v>
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="0"/>
+        <v>11.100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -920,7 +931,7 @@
       </c>
       <c r="D6" s="2">
         <f>ASISTENCIA!O6</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -934,14 +945,16 @@
         <f>PARTICIPACION!G6</f>
         <v>10</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="2">
         <f>INVESTIGACION!I6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -970,14 +983,16 @@
         <f>PARTICIPACION!G7</f>
         <v>18</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <f>INVESTIGACION!I7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="0"/>
+        <v>14.100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1006,12 +1021,14 @@
         <f>PARTICIPACION!G8</f>
         <v>14</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="2">
         <f>INVESTIGACION!I8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="0"/>
         <v>6.1000000000000005</v>
       </c>
@@ -1042,14 +1059,16 @@
         <f>PARTICIPACION!G9</f>
         <v>13</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="2">
         <f>INVESTIGACION!I9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1078,14 +1097,16 @@
         <f>PARTICIPACION!G10</f>
         <v>16</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="2">
         <f>INVESTIGACION!I10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>6.15</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>12.15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1108,20 +1129,22 @@
       </c>
       <c r="F11" s="2">
         <f>EXPERIENCIA!E11</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
         <f>PARTICIPACION!G11</f>
         <v>16</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="2">
         <f>INVESTIGACION!I11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1150,14 +1173,16 @@
         <f>PARTICIPACION!G12</f>
         <v>13</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="2">
         <f>INVESTIGACION!I12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1186,14 +1211,16 @@
         <f>PARTICIPACION!G13</f>
         <v>13</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="2">
         <f>INVESTIGACION!I13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1222,14 +1249,16 @@
         <f>PARTICIPACION!G14</f>
         <v>12</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="2">
         <f>INVESTIGACION!I14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>17</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="0"/>
+        <v>10.200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1271,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,10 +1279,9 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="12" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1533,14 +1561,14 @@
         <v>31</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1941,10 +1969,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
@@ -2130,7 +2162,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2552,8 +2584,11 @@
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,12 +2640,15 @@
         <v>44</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUNDUP((G2+H2)/2,0)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -2632,12 +2670,15 @@
         <v>46</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I14" si="0">ROUNDUP((G3+H3)/2,0)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -2659,12 +2700,15 @@
         <v>48</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -2686,12 +2730,15 @@
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -2713,12 +2760,15 @@
         <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -2740,12 +2790,15 @@
         <v>54</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2768,7 +2821,10 @@
       <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2786,12 +2842,15 @@
       <c r="E9" s="11"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -2813,12 +2872,15 @@
         <v>56</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -2836,12 +2898,15 @@
       <c r="E11" s="17"/>
       <c r="F11" s="21"/>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -2863,12 +2928,15 @@
         <v>59</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -2890,12 +2958,15 @@
         <v>61</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -2917,12 +2988,15 @@
         <v>63</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
